--- a/PHP Lalavelについて.xlsx
+++ b/PHP Lalavelについて.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Documents\codes\practice2-todo-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599477B0-01DC-4A6B-963C-99798BEFE9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D3FB8-CBB7-4C96-830A-FB27F05B8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="調べてわかったこと" sheetId="1" r:id="rId1"/>
     <sheet name="手を動かして分かったこと" sheetId="2" r:id="rId2"/>
     <sheet name="ファイル構成" sheetId="3" r:id="rId3"/>
+    <sheet name="bootstrapフォルダについて" sheetId="4" r:id="rId4"/>
+    <sheet name="databaseフォルダについて" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="170">
   <si>
     <t>→PHPのWebフレームワークの１つ。</t>
     <phoneticPr fontId="1"/>
@@ -508,12 +510,6 @@
     <t>│  │  ├─ 0001_01_01_000001_create_cache_table.php</t>
   </si>
   <si>
-    <t>│  │  ├─ 2025_11_19_135111_create_todos_table.php</t>
-  </si>
-  <si>
-    <t>│  │  └─ 0001_01_01_000002_create_jobs_table.php</t>
-  </si>
-  <si>
     <t>│  ├─ seeders</t>
   </si>
   <si>
@@ -536,9 +532,6 @@
   </si>
   <si>
     <t>│  ├─ index.php</t>
-  </si>
-  <si>
-    <t>│  └─ robots.txt</t>
   </si>
   <si>
     <t>├─ resources</t>
@@ -936,6 +929,578 @@
     <rPh sb="45" eb="47">
       <t>ニンショウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュに関するコンフィグファイルです。デフォルトのキャッシュやその接続先などキャッシュについてまとめられてあります。</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>セツゾクサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースに関するコンフィグファイルです。使用できるdbの設定から、接続するデータベースの指定やそのアカウントの設定などの設定がまとめられてあります。</t>
+    <rPh sb="7" eb="8">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストレージ設定に関するコンフィグファイルです。使用するストレージをどこにするかを設定できます。</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログ設定に関するコンフィグファイルです。ログを書き込むドライバからそのドライバに関する各種設定などがまとめられています。余談ですが、設定をきちんと変更すればslackに通知を飛ばすこともできるそうです。</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>カクシュセッテイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヨダン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メール送信設定に関するコンフィグファイルです。送信する際に使用するアカウントの設定や、ポート、ホストなど設定できます。</t>
+    <rPh sb="3" eb="5">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キュー設定に関するコンフィグファイルです。キューとはジョブ待ち行列、非同期処理のことらしく時間のかかる処理を待たせることなくバックグラウンドで行うために使用することらしいです。ここではどこでその処理を行うか、使用する箇所の各種設定を行えます。</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ギョウレツ</t>
+    </rPh>
+    <rPh sb="34" eb="39">
+      <t>ヒドウキショリ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="111" eb="115">
+      <t>カクシュセッテイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部API(例えばGitHubやslackなどのサードパーティサービス)の認証情報に関するコンフィグファイルです。例えばslackでは使用するボットユーザーのトークン、おそらくアカウントのことだと思いますがその設定等を行えます。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="105" eb="108">
+      <t>セッテイトウ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションに関するコンフィグファイルです。セッションの保存方法や保存する期間など、一般向けに公開する上でかなり重要になってくるサービスだと思います。</t>
+    <rPh sb="6" eb="7">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ホゾンホウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>イッパンム</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで生成されるシーダーです。今回のサンプルコードでは使用しないですがユーザー情報のシーダーです。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  │  ├─ 0001_01_01_000002_create_jobs_table.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  │  └─ 2025_11_19_135111_create_todos_table.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主にローカル環境での動作確認やテストデータの生成に使用されるフォルダーです。Faker機能と呼ばれるものを使用してランダムなデータを生成することができ、大量のダミーデータを簡単に用意できる。</t>
+  </si>
+  <si>
+    <t>デフォルトで生成されるファクトリーです。今回のサンプルコードでは使用しないですがユーザー情報のファクトリーです。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで生成されるマイグレーションです。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回のサンプルコードで使用されるマイグレーションです。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laravelアプリケーションで使用するデータベースのテーブルとそのデータを管理しているフォルダーです。詳しくは別シートにまとめます。</t>
+    <rPh sb="16" eb="18">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル構造を認識して定義しているフォルダーです。</t>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンシキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションを実際に動かす際に扱うデータをまとめているフォルダーです。</t>
+    <rPh sb="9" eb="11">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>database</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回はおそらくデータベースの構造をGIT補完するわけにはいかないのでその設定を行うために使用しています。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホカン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リレーショナルデータベースの管理システム「SQLite」で作成されたファイル形式のデータベースファイルです。サーバーを必要とせずアプリケーションに直接組み込んで使用でき、計量手軽に扱えるのが特徴です。（今回は全く使用しません。）</t>
+    <rPh sb="14" eb="16">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="89">
+      <t>ケイリョウテガル</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>トクチョウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>マッタ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部に公開するファイルについてまとめています。</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  └─ robots.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apacheウェブサーバーの動作をディレクトリ単位で制御するために使用する設定ファイルです。</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webサイトの小さなアイコン、つまりタブやブックマークで表示されているアイコンです。</t>
+    <rPh sb="7" eb="8">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際にweb上で使用するページです、ここから各種ファイルを呼び出します。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索エンジンのクローラーに対し、サイトのどのページをクロールしてよいか支持します。例えば会員限定のページや重複したコンテンツなど検索結果に表示させたくないコンテンツへのアクセスを制限することでサーバー負担を軽減させたりインデックス作成の効率化を図ります。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="44" eb="48">
+      <t>カイインゲンテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジュウフク</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>フタン</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ケイゲン</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="118" eb="121">
+      <t>コウリツカ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ハカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCVモデルのViewと、JavaScriptやCSSなどViewに関連するフロントエンドで使用するファイルをまとめたフォルダーです。</t>
+    <rPh sb="34" eb="36">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページに適用するCSSをまとめたファイルです。</t>
+    <rPh sb="4" eb="6">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページで使用するJSをまとめたファイルです。</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際に表示する内容を記載しているViewファイルをまとめたものです。</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Webアプリケーションの特定のURLにアクセスがあったときにどの処理を実行するかまとめたファイルです。</t>
+    <rPh sb="12" eb="14">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュやログなどをまとめているフォルダです。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -997,10 +1562,10 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1298,18 +1863,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
@@ -1414,18 +1979,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
@@ -1485,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF683A1D-46E3-4E1E-B287-7CB5C677A9D0}">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1509,10 +2074,10 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1524,872 +2089,949 @@
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>119</v>
+      <c r="H7" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>119</v>
+      <c r="H8" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
         <v>119</v>
-      </c>
-      <c r="I9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>119</v>
+      <c r="H10" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>119</v>
+      <c r="H11" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>119</v>
+      <c r="H12" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>119</v>
+      <c r="H13" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>119</v>
+      <c r="H14" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>119</v>
+      <c r="H15" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>119</v>
+      <c r="H16" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>119</v>
+      <c r="H18" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>119</v>
+      <c r="H19" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>119</v>
+      <c r="H20" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>119</v>
+      <c r="H21" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>119</v>
+      <c r="H22" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>119</v>
+      <c r="H23" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>119</v>
+      <c r="H24" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>119</v>
+      <c r="H26" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I26" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>119</v>
+      <c r="H27" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>119</v>
+      <c r="H28" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>119</v>
+      <c r="H29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>119</v>
+      <c r="H30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>119</v>
+      <c r="H31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
+      <c r="H32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
+      <c r="H33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
+      <c r="H34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
+      <c r="H35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>55</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
+      <c r="H36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
+      <c r="H38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
+      <c r="H39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
+      <c r="H40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>59</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
+      <c r="H41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
+      <c r="H42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>61</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
+      <c r="H43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
+        <v>146</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" t="s">
         <v>62</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" t="s">
+      <c r="H46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" t="s">
         <v>63</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" t="s">
+      <c r="H47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" t="s">
         <v>64</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
+      <c r="H48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
+      <c r="H49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I52" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" t="s">
         <v>68</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" t="s">
+      <c r="H53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
+      <c r="H54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I54" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
+        <v>159</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
+      <c r="B58" t="s">
+        <v>71</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" t="s">
         <v>73</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" t="s">
+      <c r="H60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" t="s">
         <v>74</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" t="s">
+      <c r="H61" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" t="s">
         <v>75</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" t="s">
+      <c r="H62" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
+      <c r="B63" t="s">
         <v>76</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" t="s">
+      <c r="H63" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I63" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" t="s">
         <v>77</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" t="s">
+      <c r="H64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" t="s">
-        <v>81</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
+      <c r="H65" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
+        <v>79</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9">
       <c r="B68" t="s">
-        <v>83</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
+        <v>80</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
+        <v>81</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="s">
         <v>38</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="s">
+        <v>82</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I71" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" t="s">
         <v>85</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" t="s">
+      <c r="H74" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" t="s">
         <v>86</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" t="s">
+      <c r="H75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" t="s">
         <v>87</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" t="s">
+      <c r="H76" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" t="s">
         <v>88</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" t="s">
+      <c r="H77" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="B79" t="s">
         <v>89</v>
       </c>
-      <c r="H75" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" t="s">
-        <v>92</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
+      <c r="H79" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="s">
-        <v>90</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="81" spans="2:8">
       <c r="B81" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>119</v>
+        <v>90</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="2:8">
       <c r="B82" t="s">
-        <v>90</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="83" spans="2:8">
       <c r="B83" t="s">
-        <v>94</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="2:8">
       <c r="B84" t="s">
-        <v>95</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>119</v>
+        <v>92</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="2:8">
       <c r="B85" t="s">
-        <v>96</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>119</v>
+        <v>93</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="86" spans="2:8">
       <c r="B86" t="s">
-        <v>97</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="2:8">
       <c r="B87" t="s">
         <v>38</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:8">
       <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>119</v>
+        <v>95</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:8">
       <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="2:8">
       <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="91" spans="2:8">
       <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>119</v>
+        <v>98</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" t="s">
         <v>38</v>
       </c>
-      <c r="H94" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="H94" s="1"/>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" t="s">
-        <v>104</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>119</v>
+        <v>101</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" t="s">
         <v>38</v>
       </c>
-      <c r="H96" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="H96" s="1"/>
     </row>
     <row r="97" spans="2:8">
       <c r="B97" t="s">
-        <v>105</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="2:8">
       <c r="B98" t="s">
-        <v>106</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="2:8">
       <c r="B99" t="s">
-        <v>107</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="2:8">
       <c r="B100" t="s">
-        <v>108</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="2:8">
       <c r="B101" t="s">
-        <v>109</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" t="s">
-        <v>110</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" t="s">
-        <v>111</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="2:8">
       <c r="B104" t="s">
-        <v>112</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="2:8">
       <c r="B105" t="s">
-        <v>113</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="2:8">
       <c r="B106" t="s">
-        <v>114</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="107" spans="2:8">
       <c r="B107" t="s">
-        <v>115</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="2:8">
       <c r="B108" t="s">
-        <v>116</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2399,4 +3041,36 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150838FD-DC33-4E11-B1CF-CB2E07F4B30E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C949B82-201D-4BC6-B235-2985D1A4E388}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PHP Lalavelについて.xlsx
+++ b/PHP Lalavelについて.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Documents\codes\practice2-todo-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682D3FB8-CBB7-4C96-830A-FB27F05B8638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78EAA3F-FB2D-492C-B54F-581B16039F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="調べてわかったこと" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="ファイル構成" sheetId="3" r:id="rId3"/>
     <sheet name="bootstrapフォルダについて" sheetId="4" r:id="rId4"/>
     <sheet name="databaseフォルダについて" sheetId="5" r:id="rId5"/>
+    <sheet name="実際にページを呼ぶまでの流れ" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="169">
   <si>
     <t>→PHPのWebフレームワークの１つ。</t>
     <phoneticPr fontId="1"/>
@@ -1261,10 +1262,6 @@
     <rPh sb="17" eb="18">
       <t>アツカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>database</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2050,7 +2047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF683A1D-46E3-4E1E-B287-7CB5C677A9D0}">
   <dimension ref="B2:I108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
@@ -2529,7 +2526,7 @@
         <v>116</v>
       </c>
       <c r="I48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="2:9">
@@ -2540,7 +2537,7 @@
         <v>116</v>
       </c>
       <c r="I49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="2:9">
@@ -2557,7 +2554,7 @@
         <v>116</v>
       </c>
       <c r="I51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="2:9">
@@ -2568,7 +2565,7 @@
         <v>116</v>
       </c>
       <c r="I52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="2:9">
@@ -2579,7 +2576,7 @@
         <v>116</v>
       </c>
       <c r="I53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="2:9">
@@ -2590,18 +2587,18 @@
         <v>116</v>
       </c>
       <c r="I54" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="2:9">
       <c r="B55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>116</v>
       </c>
       <c r="I55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="2:9">
@@ -2618,7 +2615,7 @@
         <v>116</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:9">
@@ -2629,7 +2626,7 @@
         <v>116</v>
       </c>
       <c r="I58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="2:9">
@@ -2648,7 +2645,7 @@
         <v>116</v>
       </c>
       <c r="I60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="2:9">
@@ -2675,7 +2672,7 @@
         <v>116</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="2:9">
@@ -2708,7 +2705,7 @@
         <v>116</v>
       </c>
       <c r="I67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="2:9">
@@ -2741,7 +2738,7 @@
         <v>116</v>
       </c>
       <c r="I71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="2:9">
@@ -3047,9 +3044,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150838FD-DC33-4E11-B1CF-CB2E07F4B30E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3060,17 +3062,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C949B82-201D-4BC6-B235-2985D1A4E388}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7021E3D1-A8D4-442B-978F-1537D2B0402A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PHP Lalavelについて.xlsx
+++ b/PHP Lalavelについて.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Documents\codes\practice2-todo-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78EAA3F-FB2D-492C-B54F-581B16039F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB63DF7-EFA1-4CCD-AEFD-716971E4DE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30435" yWindow="780" windowWidth="26385" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="調べてわかったこと" sheetId="1" r:id="rId1"/>
-    <sheet name="手を動かして分かったこと" sheetId="2" r:id="rId2"/>
-    <sheet name="ファイル構成" sheetId="3" r:id="rId3"/>
-    <sheet name="bootstrapフォルダについて" sheetId="4" r:id="rId4"/>
-    <sheet name="databaseフォルダについて" sheetId="5" r:id="rId5"/>
-    <sheet name="実際にページを呼ぶまでの流れ" sheetId="6" r:id="rId6"/>
+    <sheet name="PHP ・ PHP Laravelセットアップ方法" sheetId="7" r:id="rId1"/>
+    <sheet name="調べてわかったこと" sheetId="1" r:id="rId2"/>
+    <sheet name="手を動かして分かったこと" sheetId="2" r:id="rId3"/>
+    <sheet name="実際にページを呼ぶまでの流れ" sheetId="6" r:id="rId4"/>
+    <sheet name="ファイル構成" sheetId="3" r:id="rId5"/>
+    <sheet name="bootstrapフォルダについて" sheetId="4" r:id="rId6"/>
+    <sheet name="databaseフォルダについて" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="256">
   <si>
     <t>→PHPのWebフレームワークの１つ。</t>
     <phoneticPr fontId="1"/>
@@ -389,16 +390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　・使用したフォルダ / ファイルとその意味について</t>
-    <rPh sb="2" eb="4">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ファイル構成</t>
     <rPh sb="4" eb="6">
       <t>コウセイ</t>
@@ -688,13 +679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アプリケーションのコアコードが格納されています。(MVCでいうModelとController)</t>
-    <rPh sb="15" eb="17">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コントローラーやミドルウェアなどが入ります。</t>
     <rPh sb="17" eb="18">
       <t>ハイ</t>
@@ -772,19 +756,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>デフォルトで生成されるサービスブロバイダーです。今回は使用していないのかもしれません。</t>
-    <rPh sb="6" eb="8">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コンカイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャッシュです。初回起動時の処理を高速化するために存在します。</t>
     <rPh sb="8" eb="13">
       <t>ショカイキドウジ</t>
@@ -1444,16 +1415,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MCVモデルのViewと、JavaScriptやCSSなどViewに関連するフロントエンドで使用するファイルをまとめたフォルダーです。</t>
-    <rPh sb="34" eb="36">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ページに適用するCSSをまとめたファイルです。</t>
     <rPh sb="4" eb="6">
       <t>テキヨウ</t>
@@ -1499,13 +1460,1110 @@
   <si>
     <t>キャッシュやログなどをまとめているフォルダです。</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bladeテンプレートと呼ばれるものによって作成されているindexという名前のファイルです。</t>
+    <rPh sb="12" eb="13">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MCVモデルのViewと、JavaScriptやCSSなどViewに関連するフロントエンドで使用するファイルをまとめたフォルダーです。詳しくは別シートにまとめます。</t>
+    <rPh sb="34" eb="36">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrapフォルダーについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├─ cache</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  ├─ .gitignore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  ├─ packages.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  └─ services.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>├─ app.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>└─ providers.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.bootstrapフォルダーのファイル構成</t>
+    <rPh sb="21" eb="23">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.それぞれのファイルの中身と処理内容</t>
+    <rPh sb="12" eb="14">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap/cache/.gitignore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…Gitでバージョン管理を行わないファイルやディレクトリなどを指定するためのテキストファイルです。キャッシュファイルをバージョン管理で扱わないことを宣言しています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　つまり、毎回すべてのファイルを読み込んで実行するよりもファイルをキャッシュとして保存しておき、変更がある場合のみ読み込むなどのようにシステムの動作を最適化するのに使用するファイルをバージョン管理する必要がないため存在します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　中身としては下記画像のようになっています。</t>
+    <rPh sb="1" eb="3">
+      <t>ナカミ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カキガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・*はこのファイルがある階層のものすべて管理から除外すること。</t>
+    <rPh sb="12" eb="14">
+      <t>カイソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・!.gitignoreはこの.gitignoreのみバージョン管理すること、つまり管理除外対象として設定しないことをさします。</t>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>カンリジョガイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bootstrap/cache/packages.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…サービスコンテナに登録されているpackageの情報をキャッシュしたファイルのこと。(パッケージはcomposer.jsonというファイルで定義されて、vendorディレクトリにインストールファイル群のこと)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　つまり、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回のサンプルコードで使用するファイルをまとめたファイルです、今回は1ファイルのみですが。</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最初に呼び出されるJavaScriptです。このことをエントリーポイントと呼ぶそうです。</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravelが内部で使用する初期設定が記載されているJavaScriptです。</t>
+    <rPh sb="8" eb="10">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショキセッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このlaravelアプリケーションで使用しているCSSについて記載しているファイルです。Viteを使用してCSSのビルドを行うため自動的にpublic/にビルドされるそうです。</t>
+    <rPh sb="18" eb="20">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="65" eb="68">
+      <t>ジドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラウザでアクセスするURLのルートなどページ表示(画面系)が記載されているファイルです。主にController→Bladeを返すファイルです。</t>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ガメンケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>artisanコマンド用のルートを記載しているファイルです。Artisanコマンドを自作する際などの使用します。</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジサク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.使用するもの</t>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・VSCode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・XAMPP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　拡張機能 : PHP by DEVSENSE　※インストール時にComposer . PHP Profiler . IntelliPHP - AI Autocomplete for PHPという拡張機能が追加されます。どれも必要なものなのでIntelliPHP以外はぜっていに無効化はしないでください。</t>
+    <rPh sb="1" eb="5">
+      <t>カクチョウキノウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="98" eb="102">
+      <t>カクチョウキノウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="139" eb="142">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　   GitHub Copilot by GitHub　※この拡張機能でできることはAutocompleteなどの機能です。チャットを使用したい場合は別途入れて下さい。</t>
+    <rPh sb="36" eb="38">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Composer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PHP / PHP Laravel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  ├─ app</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  │  ├─ private</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  │  │ └─ .gitignore</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>│  │  ├─ public</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリ用のファイル置き場です。開発者やアプリ内部が使用するファイルを保存する場所です。</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カイハツシャ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公開のファイル置き場で、外部からアクセスできないため社内用ファイルなどを保存するときに使用します。</t>
+    <rPh sb="0" eb="3">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>シャナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のprivateフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公開可能ファイル置き場で、画像アップロードなどでユーザーに提供するファイルはここに保存されます。</t>
+    <rPh sb="0" eb="2">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のpublicフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のappフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravelが内部使用する一時ファイル置き場で、コンパイル結果などがここに入ります。</t>
+    <rPh sb="8" eb="12">
+      <t>ナイブシヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュ保存用域です。</t>
+    <rPh sb="5" eb="7">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシュされたデータが入るフォルダです。</t>
+    <rPh sb="12" eb="13">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のdataフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のcacheフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッション保存用域です。セッションドライバがfileの場合はここに保存されます。</t>
+    <rPh sb="5" eb="9">
+      <t>ホゾンヨウイキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のsessionsフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blabeテンプレートのコンパイル保存用域です。このファイルが存在することでblabeが高速で動作できるようになります。</t>
+    <rPh sb="17" eb="21">
+      <t>ホゾンヨウイキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のtestingフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のviewsフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト実行時の保存用域です。</t>
+    <rPh sb="3" eb="6">
+      <t>ジッコウジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ホゾンヨウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravelアプリケーション全体のログを保管しているフォルダーです。</t>
+    <rPh sb="15" eb="17">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ホカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.gitignore以外のlogsフォルダーに存在するファイルを管理させない設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーやデバッグ、スタックなどアプリのログをまとめているファイルです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test続行時に使うファイルです。アプリケーションを自動テストするためのコードをまとめている場所で、PHPUnitもしくはPestで実行するテストコードを置く場所になっています。</t>
+    <rPh sb="4" eb="7">
+      <t>ゾッコウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全テストクラスが継承する共通クラスで、初期設定やデータベースのリフレッシュなどテストを動かすために必須のファイルです。</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>ショキセッテイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単体テスト用のコードです。クラスや計算処理、サービスクラスのロジックなど小規模なテストのことです。</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ケイサンショリ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ショウキボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで生成されるテストです。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能テスト用のコードです。コントローラーの動作確認や、HTTPリクエストの結果確認、DB操作を含む動作確認などアプリの機能全体をテストする実践的なコードを置きます。</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>ケッカカクニン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="49" eb="53">
+      <t>ドウサカクニン</t>
+    </rPh>
+    <rPh sb="59" eb="63">
+      <t>キノウゼンタイ</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>ジッセンテキ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravelを動かすために必要な外部ライブラリがすべて入っています。また、基本的にGit管理は行わず、必要なパッケージ一覧をまとめたjsonとバージョン固定のlookファイルがコミットされます。</t>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境設定を行うファイルです。データベースやメールなどLaravelの動作環境などをまとめています。また絶対にGitに挙げてはいけないファイルです。</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ゼッタイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンプル環境ファイルです。.envが共有できないためテンプレートとして扱います。</t>
+    <rPh sb="4" eb="6">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Laravelのコマンドラインツール、artisanです。これは入口になっています。</t>
+    <rPh sb="32" eb="34">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなライブラリを使用しているのか、プロジェクトのメタ情報などを管理しています。またこれがあればvendor/を再生成できます。</t>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>サイセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsonファイルに記載されていた外部ライブラリのバージョンを固定するためのファイルです。これにより全員が同じ環境で開発ができ、本番でバージョンがずれることが無いです。</t>
+    <rPh sb="9" eb="11">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ホンバン</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロントエンドをビルドするために必要なNodeパッケージ管理のファイルです。JSのライブラリやCSS / JSのビルド設定を管理できるファイルです。いつものやつ。</t>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Viteの設定ファイルです。CSSやJSのコンパイルからnpm run devの設定などを行います。</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト設定ファイルです。テストフォルダの指定等を行えます。またテストを実行した際は必ず最初にここを読み取ります。</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubに表示されるプロジェクトの説明書です。</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セツメイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト全体で何を管理し、管理しないのか設定しています。</t>
+    <rPh sb="6" eb="8">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードスタイルの設定を行うファイルです。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitの属性設定を行うファイルです。</t>
+    <rPh sb="4" eb="8">
+      <t>ゾクセイセッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションのコアコード、つまりアプリケーションロジックの中心が格納されています。(MVCでいうModelとController“のみ”ではなく、Laravelアプリケーションのロジック全体が入るフォルダ)</t>
+    <rPh sb="34" eb="36">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトで生成されるサービスブロバイダーです。今回のアプリでは独自の処理を追加していないが、Laravel は内部で常に使用しています。</t>
+    <rPh sb="6" eb="8">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ドクジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを呼び出すまでの仕組み</t>
+    <rPh sb="4" eb="5">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> dir "C:\xampp\mysql\data\ib*";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ディレクトリ: C:\xampp\mysql\data</t>
+  </si>
+  <si>
+    <t>Mode                 LastWriteTime         Length Name</t>
+  </si>
+  <si>
+    <t>----                 -------------         ------ ----</t>
+  </si>
+  <si>
+    <t>-a----        2025/11/20     13:25       10485760 ibdata1</t>
+  </si>
+  <si>
+    <t>-a----        2025/11/20     13:25           1010 ib_buffer_pool</t>
+  </si>
+  <si>
+    <t>-a----        2025/11/20     13:25        5242880 ib_logfile0</t>
+  </si>
+  <si>
+    <t>-a----        2025/11/20     13:25        5242880 ib_logfile1</t>
+  </si>
+  <si>
+    <t>dir "C:\xampp\mysql\data\ib_logfile*";</t>
+  </si>
+  <si>
+    <t>dir "C:\xampp\mysql\data\*.dmp";</t>
+  </si>
+  <si>
+    <t>Get-Content "C:\xampp\mysql\bin\my.ini" | Select-String -Pattern "innodb_force_recovery" -Context 0,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,6 +2594,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1557,7 +2630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1567,6 +2640,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1583,6 +2667,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>3572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>541734</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>235325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF5A052B-8587-64D3-265C-D1F698367B04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="4289822"/>
+          <a:ext cx="1910953" cy="708003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1847,6 +2986,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8827F9B0-57DD-46BD-9D41-2A0199CBD67F}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:E3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E24"/>
   <sheetViews>
@@ -1962,12 +3184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96039FB-22CF-4278-82DF-999079044D99}">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2029,11 +3251,6 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E3"/>
@@ -2043,992 +3260,1285 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF683A1D-46E3-4E1E-B287-7CB5C677A9D0}">
-  <dimension ref="B2:I108"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7021E3D1-A8D4-442B-978F-1537D2B0402A}">
+  <dimension ref="B2:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="8" max="8" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="E10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="E13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="E14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="E15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="E16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF683A1D-46E3-4E1E-B287-7CB5C677A9D0}">
+  <dimension ref="B2:H114"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="7" max="7" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8">
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:8">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:8">
       <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
         <v>114</v>
       </c>
-      <c r="I5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" t="s">
+      <c r="G7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
         <v>116</v>
       </c>
-      <c r="I7" t="s">
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="12" spans="2:8">
+      <c r="B12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="13" spans="2:8">
+      <c r="B13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
+    <row r="15" spans="2:8">
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="20" spans="2:8">
+      <c r="B20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
+    <row r="21" spans="2:8">
+      <c r="B21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I26" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I27" t="s">
+    <row r="30" spans="2:8">
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" t="s">
+    <row r="31" spans="2:8">
+      <c r="B31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" t="s">
+    <row r="32" spans="2:8">
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
-      <c r="B30" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" t="s">
+    <row r="33" spans="2:8">
+      <c r="B33" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H33" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I31" t="s">
+    <row r="34" spans="2:8">
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I32" t="s">
+    <row r="35" spans="2:8">
+      <c r="B35" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
-      <c r="B33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I33" t="s">
+    <row r="36" spans="2:8">
+      <c r="B36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" t="s">
+    <row r="37" spans="2:8">
+      <c r="B37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9">
-      <c r="B36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" t="s">
-        <v>56</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I38" t="s">
+    <row r="48" spans="2:8">
+      <c r="B48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
-      <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
-      <c r="B40" t="s">
-        <v>58</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
-      <c r="B41" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" t="s">
+    <row r="49" spans="2:8">
+      <c r="B49" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I46" t="s">
+    <row r="50" spans="2:8">
+      <c r="B50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I47" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" t="s">
+    <row r="52" spans="2:8">
+      <c r="B52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9">
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" t="s">
-        <v>66</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I51" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="G55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H55" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
-      <c r="B53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53" t="s">
+    <row r="56" spans="2:8">
+      <c r="B56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H58" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I54" t="s">
+    <row r="59" spans="2:8">
+      <c r="B59" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" t="s">
+    <row r="61" spans="2:8">
+      <c r="B61" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I57" t="s">
+    <row r="64" spans="2:8">
+      <c r="B64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I58" t="s">
+    <row r="68" spans="2:8">
+      <c r="B68" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H71" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
-      <c r="B59" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I60" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9">
-      <c r="B62" t="s">
-        <v>75</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I63" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" t="s">
-        <v>78</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9">
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" t="s">
-        <v>80</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="H70" s="1"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" t="s">
+    <row r="72" spans="2:8">
+      <c r="B72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H72" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H77" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I71" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" t="s">
+      <c r="G78" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H78" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" t="s">
+      <c r="G79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H79" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" t="s">
+      <c r="G80" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8">
+      <c r="B81" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" t="s">
+      <c r="G81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8">
+      <c r="B82" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" t="s">
+      <c r="G82" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H82" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
+      <c r="B83" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9">
-      <c r="B77" t="s">
+      <c r="G83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H83" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H84" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9">
-      <c r="B78" t="s">
-        <v>87</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9">
-      <c r="B79" t="s">
+      <c r="G85" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H85" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H86" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9">
-      <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
-      <c r="B81" t="s">
+      <c r="G87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H87" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8">
-      <c r="B82" t="s">
-        <v>87</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8">
-      <c r="B83" t="s">
+      <c r="G89" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H89" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
-      <c r="B84" t="s">
+      <c r="G90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H90" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
-      <c r="B85" t="s">
+      <c r="G91" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H91" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
+      <c r="B92" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
-      <c r="B86" t="s">
+      <c r="G92" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H92" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
+      <c r="B93" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
-      <c r="B87" t="s">
-        <v>38</v>
-      </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8">
-      <c r="B88" t="s">
+      <c r="G94" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H94" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
-      <c r="B89" t="s">
+      <c r="G95" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H95" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
-      <c r="B90" t="s">
+      <c r="G96" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
-      <c r="B91" t="s">
+      <c r="G97" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H97" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" t="s">
+      <c r="G98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" t="s">
+      <c r="G99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H99" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" t="s">
-        <v>38</v>
-      </c>
-      <c r="H94" s="1"/>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" t="s">
+      <c r="G101" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H101" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" t="s">
-        <v>38</v>
-      </c>
-      <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="2:8">
-      <c r="B97" t="s">
+      <c r="G103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H103" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8">
-      <c r="B98" t="s">
+      <c r="G104" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H104" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8">
-      <c r="B99" t="s">
+      <c r="G105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H105" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8">
-      <c r="B100" t="s">
+      <c r="G106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H106" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8">
-      <c r="B101" t="s">
+      <c r="G107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H107" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8">
-      <c r="B102" t="s">
+      <c r="G108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H108" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8">
-      <c r="B103" t="s">
+      <c r="G109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8">
-      <c r="B104" t="s">
+      <c r="G110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H110" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8">
-      <c r="B105" t="s">
+      <c r="G111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8">
-      <c r="B106" t="s">
+      <c r="G112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H112" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8">
-      <c r="B107" t="s">
+      <c r="G113" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H113" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8">
-      <c r="B108" t="s">
-        <v>113</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>116</v>
+      <c r="G114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H114" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3040,25 +4550,181 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150838FD-DC33-4E11-B1CF-CB2E07F4B30E}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
+    <col min="8" max="8" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C949B82-201D-4BC6-B235-2985D1A4E388}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3074,23 +4740,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7021E3D1-A8D4-442B-978F-1537D2B0402A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/PHP Lalavelについて.xlsx
+++ b/PHP Lalavelについて.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Documents\codes\practice2-todo-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB63DF7-EFA1-4CCD-AEFD-716971E4DE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84134FAF-0F40-4DEB-94B5-110CB0AD2429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30435" yWindow="780" windowWidth="26385" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP ・ PHP Laravelセットアップ方法" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="245">
   <si>
     <t>→PHPのWebフレームワークの１つ。</t>
     <phoneticPr fontId="1"/>
@@ -2524,39 +2524,6 @@
       <t>シク</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> dir "C:\xampp\mysql\data\ib*";</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    ディレクトリ: C:\xampp\mysql\data</t>
-  </si>
-  <si>
-    <t>Mode                 LastWriteTime         Length Name</t>
-  </si>
-  <si>
-    <t>----                 -------------         ------ ----</t>
-  </si>
-  <si>
-    <t>-a----        2025/11/20     13:25       10485760 ibdata1</t>
-  </si>
-  <si>
-    <t>-a----        2025/11/20     13:25           1010 ib_buffer_pool</t>
-  </si>
-  <si>
-    <t>-a----        2025/11/20     13:25        5242880 ib_logfile0</t>
-  </si>
-  <si>
-    <t>-a----        2025/11/20     13:25        5242880 ib_logfile1</t>
-  </si>
-  <si>
-    <t>dir "C:\xampp\mysql\data\ib_logfile*";</t>
-  </si>
-  <si>
-    <t>dir "C:\xampp\mysql\data\*.dmp";</t>
-  </si>
-  <si>
-    <t>Get-Content "C:\xampp\mysql\bin\my.ini" | Select-String -Pattern "innodb_force_recovery" -Context 0,1</t>
   </si>
 </sst>
 </file>
@@ -2635,12 +2602,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2651,6 +2612,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2989,73 +2956,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8827F9B0-57DD-46BD-9D41-2A0199CBD67F}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3082,18 +3047,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" t="s">
@@ -3198,18 +3163,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
@@ -3262,10 +3227,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7021E3D1-A8D4-442B-978F-1537D2B0402A}">
-  <dimension ref="B2:E33"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3273,89 +3238,9 @@
     <col min="1" max="1" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="E7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="E10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="E13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="E14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="E15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="E16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
-        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3379,16 +3264,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="2:8">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" t="s">
@@ -3399,12 +3284,12 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -3415,7 +3300,7 @@
       </c>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -3426,7 +3311,7 @@
       </c>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -3437,7 +3322,7 @@
       </c>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -3448,7 +3333,7 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -3459,7 +3344,7 @@
       </c>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -3470,7 +3355,7 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -3481,7 +3366,7 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -3492,7 +3377,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -3503,7 +3388,7 @@
       </c>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3514,13 +3399,13 @@
       </c>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3531,7 +3416,7 @@
       </c>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -3542,7 +3427,7 @@
       </c>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -3553,7 +3438,7 @@
       </c>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -3564,7 +3449,7 @@
       </c>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -3575,7 +3460,7 @@
       </c>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -3586,7 +3471,7 @@
       </c>
     </row>
     <row r="24" spans="2:8">
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -3597,13 +3482,13 @@
       </c>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -3614,7 +3499,7 @@
       </c>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -3625,7 +3510,7 @@
       </c>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -3636,7 +3521,7 @@
       </c>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -3647,7 +3532,7 @@
       </c>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -3658,7 +3543,7 @@
       </c>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -3669,7 +3554,7 @@
       </c>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -3680,7 +3565,7 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -3691,7 +3576,7 @@
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -3702,7 +3587,7 @@
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -3713,7 +3598,7 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -3724,13 +3609,13 @@
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -3741,7 +3626,7 @@
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -3752,7 +3637,7 @@
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -3763,7 +3648,7 @@
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -3774,7 +3659,7 @@
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3785,7 +3670,7 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>60</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -3796,7 +3681,7 @@
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3807,7 +3692,7 @@
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>144</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3818,7 +3703,7 @@
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -3829,7 +3714,7 @@
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3840,7 +3725,7 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>63</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3851,7 +3736,7 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>64</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -3862,13 +3747,13 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>65</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -3879,7 +3764,7 @@
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -3890,7 +3775,7 @@
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>67</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -3901,7 +3786,7 @@
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -3912,7 +3797,7 @@
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>155</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -3923,13 +3808,13 @@
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>69</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -3940,7 +3825,7 @@
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3951,7 +3836,7 @@
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -3962,7 +3847,7 @@
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>72</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -3973,7 +3858,7 @@
       </c>
     </row>
     <row r="61" spans="2:8">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -3984,7 +3869,7 @@
       </c>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3995,7 +3880,7 @@
       </c>
     </row>
     <row r="63" spans="2:8">
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -4006,7 +3891,7 @@
       </c>
     </row>
     <row r="64" spans="2:8">
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -4017,7 +3902,7 @@
       </c>
     </row>
     <row r="65" spans="2:8">
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -4028,13 +3913,13 @@
       </c>
     </row>
     <row r="66" spans="2:8">
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="2:8">
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>78</v>
       </c>
       <c r="G67" s="1" t="s">
@@ -4045,7 +3930,7 @@
       </c>
     </row>
     <row r="68" spans="2:8">
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>79</v>
       </c>
       <c r="G68" s="1" t="s">
@@ -4056,7 +3941,7 @@
       </c>
     </row>
     <row r="69" spans="2:8">
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -4067,13 +3952,13 @@
       </c>
     </row>
     <row r="70" spans="2:8">
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="2:8">
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>81</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -4084,7 +3969,7 @@
       </c>
     </row>
     <row r="72" spans="2:8">
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -4095,7 +3980,7 @@
       </c>
     </row>
     <row r="73" spans="2:8">
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -4106,7 +3991,7 @@
       </c>
     </row>
     <row r="74" spans="2:8">
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -4117,7 +4002,7 @@
       </c>
     </row>
     <row r="75" spans="2:8">
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>203</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -4128,7 +4013,7 @@
       </c>
     </row>
     <row r="76" spans="2:8">
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -4139,7 +4024,7 @@
       </c>
     </row>
     <row r="77" spans="2:8">
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -4150,7 +4035,7 @@
       </c>
     </row>
     <row r="78" spans="2:8">
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>82</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -4161,7 +4046,7 @@
       </c>
     </row>
     <row r="79" spans="2:8">
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>83</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -4172,7 +4057,7 @@
       </c>
     </row>
     <row r="80" spans="2:8">
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -4183,7 +4068,7 @@
       </c>
     </row>
     <row r="81" spans="2:8">
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -4194,7 +4079,7 @@
       </c>
     </row>
     <row r="82" spans="2:8">
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -4205,7 +4090,7 @@
       </c>
     </row>
     <row r="83" spans="2:8">
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>87</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -4216,7 +4101,7 @@
       </c>
     </row>
     <row r="84" spans="2:8">
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -4227,7 +4112,7 @@
       </c>
     </row>
     <row r="85" spans="2:8">
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -4238,7 +4123,7 @@
       </c>
     </row>
     <row r="86" spans="2:8">
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -4249,7 +4134,7 @@
       </c>
     </row>
     <row r="87" spans="2:8">
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>89</v>
       </c>
       <c r="G87" s="1" t="s">
@@ -4260,7 +4145,7 @@
       </c>
     </row>
     <row r="88" spans="2:8">
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>86</v>
       </c>
       <c r="G88" s="1" t="s">
@@ -4271,7 +4156,7 @@
       </c>
     </row>
     <row r="89" spans="2:8">
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G89" s="1" t="s">
@@ -4282,7 +4167,7 @@
       </c>
     </row>
     <row r="90" spans="2:8">
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -4293,7 +4178,7 @@
       </c>
     </row>
     <row r="91" spans="2:8">
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -4304,7 +4189,7 @@
       </c>
     </row>
     <row r="92" spans="2:8">
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>93</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -4315,13 +4200,13 @@
       </c>
     </row>
     <row r="93" spans="2:8">
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="2:8">
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>94</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -4332,7 +4217,7 @@
       </c>
     </row>
     <row r="95" spans="2:8">
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -4343,7 +4228,7 @@
       </c>
     </row>
     <row r="96" spans="2:8">
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -4354,7 +4239,7 @@
       </c>
     </row>
     <row r="97" spans="2:8">
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -4365,7 +4250,7 @@
       </c>
     </row>
     <row r="98" spans="2:8">
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -4376,7 +4261,7 @@
       </c>
     </row>
     <row r="99" spans="2:8">
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>99</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -4387,13 +4272,13 @@
       </c>
     </row>
     <row r="100" spans="2:8">
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G100" s="1"/>
     </row>
     <row r="101" spans="2:8">
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -4404,13 +4289,13 @@
       </c>
     </row>
     <row r="102" spans="2:8">
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="2:8">
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -4421,7 +4306,7 @@
       </c>
     </row>
     <row r="104" spans="2:8">
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="3" t="s">
         <v>102</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -4432,7 +4317,7 @@
       </c>
     </row>
     <row r="105" spans="2:8">
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>103</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -4443,7 +4328,7 @@
       </c>
     </row>
     <row r="106" spans="2:8">
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="G106" s="1" t="s">
@@ -4454,7 +4339,7 @@
       </c>
     </row>
     <row r="107" spans="2:8">
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>105</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -4465,7 +4350,7 @@
       </c>
     </row>
     <row r="108" spans="2:8">
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="3" t="s">
         <v>106</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -4476,7 +4361,7 @@
       </c>
     </row>
     <row r="109" spans="2:8">
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>107</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -4487,7 +4372,7 @@
       </c>
     </row>
     <row r="110" spans="2:8">
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="3" t="s">
         <v>108</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -4498,7 +4383,7 @@
       </c>
     </row>
     <row r="111" spans="2:8">
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>109</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -4509,7 +4394,7 @@
       </c>
     </row>
     <row r="112" spans="2:8">
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="3" t="s">
         <v>110</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -4520,7 +4405,7 @@
       </c>
     </row>
     <row r="113" spans="2:8">
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -4531,7 +4416,7 @@
       </c>
     </row>
     <row r="114" spans="2:8">
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>112</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -4565,22 +4450,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" t="s">
@@ -4588,7 +4473,7 @@
       </c>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>168</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -4599,7 +4484,7 @@
       </c>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -4610,7 +4495,7 @@
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>170</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -4621,7 +4506,7 @@
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>171</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -4632,7 +4517,7 @@
       </c>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>172</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -4643,7 +4528,7 @@
       </c>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>173</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -4654,7 +4539,7 @@
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>174</v>
       </c>
       <c r="H12" s="1" t="s">

--- a/PHP Lalavelについて.xlsx
+++ b/PHP Lalavelについて.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ゲスト\Documents\codes\practice2-todo-laravel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84134FAF-0F40-4DEB-94B5-110CB0AD2429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F86020-29C4-4B72-BFFE-AB26AC16599B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="246">
   <si>
     <t>→PHPのWebフレームワークの１つ。</t>
     <phoneticPr fontId="1"/>
@@ -2523,6 +2523,10 @@
     <rPh sb="11" eb="13">
       <t>シク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Laravel</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3019,6 +3023,11 @@
         <v>197</v>
       </c>
     </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
     <row r="15" spans="2:9">
       <c r="B15" s="4" t="s">
         <v>198</v>
